--- a/tests/fixtures/verification/testing/hybrid/transcription_translation/transcription_translation-wc_lang_JK.xlsx
+++ b/tests/fixtures/verification/testing/hybrid/transcription_translation/transcription_translation-wc_lang_JK.xlsx
@@ -2297,7 +2297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -2473,7 +2473,6 @@
         </is>
       </c>
     </row>
-    <row r="7"/>
   </sheetData>
   <autoFilter ref="A1:I1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
